--- a/data/Rodrigo FloresT3-2024.xlsx
+++ b/data/Rodrigo FloresT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>100.40107022</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1144,6 +1146,7 @@
         <v>1.122e-05</v>
       </c>
     </row>
+    <row r="43"/>
     <row r="44">
       <c r="D44" s="6" t="inlineStr">
         <is>
@@ -1169,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,6 +1185,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1189,6 +1194,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1196,6 +1202,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1513,6 +1520,7 @@
         <v>1.036e-05</v>
       </c>
     </row>
+    <row r="32"/>
     <row r="33">
       <c r="C33" s="6" t="inlineStr">
         <is>
@@ -1538,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1551,6 +1559,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1558,6 +1568,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1565,6 +1576,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1700,6 +1712,7 @@
         <v>6.56e-06</v>
       </c>
     </row>
+    <row r="18"/>
     <row r="19">
       <c r="C19" s="6" t="inlineStr">
         <is>
